--- a/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,65</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-19,45; -7,42</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; -1,47</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; -1,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; -1,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; -5,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,98; -3,59</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-71,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-43,3%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-48,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-48,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,54%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-86,22; -46,25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-63,65; -6,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-68,63; -8,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-66,82; -15,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,66; -40,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,14; -24,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 1,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; -1,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 7,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 6,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 4,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 4,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; -0,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,92; 17,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,3; 37,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,46; -16,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 65,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 54,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 34,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,22; 31,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 36,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,2; -0,67</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 9,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 4,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 3,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 6,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,48; -7,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,81; -3,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 6,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,29; -4,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,59; -1,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,19; 105,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,82; 42,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,46; 35,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,3; 30,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,89; -37,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,84; -15,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,42; 38,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,71; -25,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,95; -9,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 3,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 3,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,48; 1,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 0,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,29; 0,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; -4,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 0,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; -0,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; -3,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,73%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,21; 26,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,46; 24,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,37; 13,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,75; 3,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,32; 5,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,85; -22,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,91; -0,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,63; -1,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,8; -21,04</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 16,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 13,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 7,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 12,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 12,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 13,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 11,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 11,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 9,64</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,89%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 305,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,46; 216,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,74; 131,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; 130,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 135,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 138,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,84; 138,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 125,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,16; 113,88</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; -0,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,93; -6,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,06; -0,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 11,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,27; -3,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,04; 0,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 3,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; -6,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; -1,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,37%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,54%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,9%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,51; -3,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,01; -36,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,08; -2,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,67; 94,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,31; -22,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,73; 5,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,28; 25,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,69; -42,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,92; -9,89</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 9,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,25; -2,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; 1,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 10,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,43; -2,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; -0,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 8,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; -3,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; -0,87</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,63%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,1%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 71,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,27; -19,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,86; 12,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,17; 80,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,95; -17,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,34; -8,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 60,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,04; -24,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,58; -6,89</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 8,32</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 7,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 2,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 6,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 2,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; -0,74</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 6,19</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 3,75</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; -0,18</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,51%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,86%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,39%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 116,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 109,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; 32,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,15; 60,43</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,78; 23,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,4; -6,34</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 63,77</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; 38,49</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,35; -1,94</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 3,38</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; -1,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -1,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,99</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; -2,52</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -2,64</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,19</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; -2,37</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -2,54</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,07%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,85%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 26,24</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,01; -8,31</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -11,04</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 26,34</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,33; -17,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,68; -17,66</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 22,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,3; -16,15</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,13; -17,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-8,02</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; 4,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -1,47</t>
+          <t>-15,11; -2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 6,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -1,77</t>
+          <t>-13,24; -1,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; -3,59</t>
+          <t>-12,42; -4,04</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,3%</t>
+          <t>-47,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,03%</t>
+          <t>-48,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-45,54%</t>
+          <t>-47,75%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,95; 35,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,65; -6,47</t>
+          <t>-66,79; -13,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,13; 57,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -15,62</t>
+          <t>-67,28; -15,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,9; 29,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,14; -24,99</t>
+          <t>-62,11; -28,37</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,51</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -1,88</t>
+          <t>-11,29; -2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,02</t>
+          <t>-4,49; 3,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; -0,17</t>
+          <t>-6,62; -0,6</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-44,01%</t>
+          <t>-46,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,18%</t>
+          <t>-25,37%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,46; -16,03</t>
+          <t>-65,62; -20,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 34,75</t>
+          <t>-28,86; 32,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -0,67</t>
+          <t>-41,68; -3,94</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-5,83</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,4</t>
+          <t>-7,11; 2,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -3,35</t>
+          <t>-14,99; -3,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -1,53</t>
+          <t>-9,89; -1,93</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,16%</t>
+          <t>-38,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-29,0%</t>
+          <t>-30,8%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 35,27</t>
+          <t>-41,6; 30,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -15,61</t>
+          <t>-53,89; -17,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -9,06</t>
+          <t>-45,59; -11,61</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-8,49</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 3,61</t>
+          <t>-7,94; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 1,74</t>
+          <t>-9,82; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 0,56</t>
+          <t>-11,45; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -4,52</t>
+          <t>-18,43; -6,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,04</t>
+          <t>-7,86; 0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -3,5</t>
+          <t>-13,15; -4,6</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-25,81%</t>
+          <t>-22,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,35%</t>
+          <t>-54,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-18,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,73%</t>
+          <t>-43,48%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 26,67</t>
+          <t>-41,65; 26,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 13,01</t>
+          <t>-49,18; 10,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 3,12</t>
+          <t>-43,95; 8,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,85; -22,99</t>
+          <t>-72,12; -35,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -0,04</t>
+          <t>-35,5; 3,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,8; -21,04</t>
+          <t>-60,33; -26,51</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,66</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,59</t>
+          <t>-3,21; 7,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 13,27</t>
+          <t>1,09; 13,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,64</t>
+          <t>1,15; 9,77</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>51,78%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 131,28</t>
+          <t>-28,37; 132,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,23; 138,59</t>
+          <t>5,5; 142,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,16; 113,88</t>
+          <t>8,78; 114,58</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-5,69</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -0,38</t>
+          <t>-13,22; -0,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 0,63</t>
+          <t>-11,05; 0,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -1,54</t>
+          <t>-10,45; -1,62</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-33,77%</t>
+          <t>-34,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-30,13%</t>
+          <t>-30,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-32,3%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -2,37</t>
+          <t>-54,91; -3,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 5,32</t>
+          <t>-53,59; 5,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,92; -9,89</t>
+          <t>-49,44; -10,89</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-4,71</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,56</t>
+          <t>-7,46; 1,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,79</t>
+          <t>-12,97; -1,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,87</t>
+          <t>-9,11; -1,61</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>-17,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-31,83%</t>
+          <t>-40,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-25,1%</t>
+          <t>-30,91%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 12,36</t>
+          <t>-41,13; 10,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-59,34; -8,2</t>
+          <t>-75,62; -14,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -6,89</t>
+          <t>-56,19; -11,06</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-3,41</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,23</t>
+          <t>-7,25; 1,09</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,74</t>
+          <t>-7,63; -0,56</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,18</t>
+          <t>-7,15; -0,85</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-22,39%</t>
+          <t>-31,25%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 32,76</t>
+          <t>-70,97; 14,4</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-48,4; -6,34</t>
+          <t>-47,6; -4,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-38,35; -1,94</t>
+          <t>-58,39; -9,33</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -1,35</t>
+          <t>-6,28; -2,2</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -2,64</t>
+          <t>-7,41; -3,18</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -2,54</t>
+          <t>-6,07; -3,12</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-24,07%</t>
+          <t>-29,68%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -11,04</t>
+          <t>-44,14; -17,48</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-35,68; -17,66</t>
+          <t>-44,21; -21,57</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-32,13; -17,68</t>
+          <t>-39,28; -22,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 4,63</t>
+          <t>-10,45; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -7,42</t>
+          <t>-19,6; -6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -2,15</t>
+          <t>-14,55; -2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,8</t>
+          <t>-6,63; 6,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -1,56</t>
+          <t>-14,13; -1,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -1,88</t>
+          <t>-13,4; -2,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 4,14</t>
+          <t>-6,61; 3,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -5,77</t>
+          <t>-14,93; -5,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -4,04</t>
+          <t>-12,5; -4,09</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 35,14</t>
+          <t>-47,64; 32,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,22; -46,25</t>
+          <t>-85,78; -44,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -13,09</t>
+          <t>-66,05; -17,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 57,86</t>
+          <t>-35,32; 57,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -8,32</t>
+          <t>-71,59; -6,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -15,97</t>
+          <t>-67,96; -19,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 29,72</t>
+          <t>-34,01; 29,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,66; -40,21</t>
+          <t>-74,97; -40,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,11; -28,37</t>
+          <t>-62,63; -28,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 1,96</t>
+          <t>-7,5; 2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,47</t>
+          <t>-5,77; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -2,28</t>
+          <t>-11,26; -2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,36</t>
+          <t>-2,28; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,05</t>
+          <t>-3,43; 6,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,71</t>
+          <t>-4,42; 3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,62</t>
+          <t>-3,54; 3,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,37</t>
+          <t>-3,53; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -0,6</t>
+          <t>-6,37; -0,44</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 17,15</t>
+          <t>-44,71; 17,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 37,41</t>
+          <t>-35,42; 39,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -20,88</t>
+          <t>-65,5; -20,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 65,24</t>
+          <t>-15,52; 68,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 54,51</t>
+          <t>-23,16; 60,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 32,4</t>
+          <t>-28,12; 29,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 31,94</t>
+          <t>-23,05; 28,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 36,15</t>
+          <t>-23,01; 33,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,68; -3,94</t>
+          <t>-40,83; -3,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 9,97</t>
+          <t>-2,38; 9,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,07</t>
+          <t>-7,59; 3,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,9</t>
+          <t>-7,18; 3,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 6,11</t>
+          <t>-7,68; 6,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,48; -7,85</t>
+          <t>-20,18; -7,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -3,56</t>
+          <t>-14,22; -2,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,13</t>
+          <t>-3,59; 5,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -4,25</t>
+          <t>-12,6; -4,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -1,93</t>
+          <t>-10,2; -1,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 105,42</t>
+          <t>-16,01; 98,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 42,18</t>
+          <t>-46,93; 33,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 30,63</t>
+          <t>-43,85; 40,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 30,38</t>
+          <t>-28,69; 34,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,89; -37,86</t>
+          <t>-73,57; -37,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,89; -17,54</t>
+          <t>-52,43; -12,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 38,22</t>
+          <t>-16,36; 35,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,71; -25,95</t>
+          <t>-59,28; -25,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,59; -11,61</t>
+          <t>-46,14; -11,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,69</t>
+          <t>-8,13; 4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 3,12</t>
+          <t>-8,66; 3,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 1,42</t>
+          <t>-9,63; 2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,5</t>
+          <t>-10,97; 1,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 0,97</t>
+          <t>-12,78; 0,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -6,39</t>
+          <t>-18,91; -6,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,62</t>
+          <t>-7,9; 0,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -0,27</t>
+          <t>-8,73; -0,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -4,6</t>
+          <t>-13,67; -4,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 26,36</t>
+          <t>-41,75; 34,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 24,46</t>
+          <t>-44,95; 24,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 10,62</t>
+          <t>-50,67; 16,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 8,18</t>
+          <t>-42,41; 9,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 5,11</t>
+          <t>-49,66; 4,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,12; -35,44</t>
+          <t>-73,19; -36,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 3,81</t>
+          <t>-36,33; 5,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,63; -1,46</t>
+          <t>-40,18; -0,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,33; -26,51</t>
+          <t>-62,33; -27,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 16,11</t>
+          <t>1,95; 15,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 13,61</t>
+          <t>-0,97; 14,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 7,6</t>
+          <t>-3,03; 8,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,12</t>
+          <t>-2,76; 10,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 12,51</t>
+          <t>-3,63; 12,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 13,6</t>
+          <t>1,25; 13,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,56</t>
+          <t>1,59; 11,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,43</t>
+          <t>-0,37; 10,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,77</t>
+          <t>1,22; 9,84</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 305,35</t>
+          <t>15,2; 255,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 216,99</t>
+          <t>-11,19; 226,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 132,19</t>
+          <t>-28,21; 144,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 130,0</t>
+          <t>-16,73; 114,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 135,93</t>
+          <t>-21,98; 128,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,5; 142,08</t>
+          <t>5,22; 146,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,84; 138,29</t>
+          <t>11,32; 130,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,85; 125,47</t>
+          <t>-4,47; 118,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,78; 114,58</t>
+          <t>6,49; 112,47</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -0,93</t>
+          <t>-15,23; -1,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -6,35</t>
+          <t>-18,87; -5,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -0,62</t>
+          <t>-13,07; -0,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,37</t>
+          <t>-2,63; 12,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -3,3</t>
+          <t>-16,12; -3,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,65</t>
+          <t>-11,01; 0,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 3,55</t>
+          <t>-5,65; 3,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -6,51</t>
+          <t>-15,37; -6,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -1,62</t>
+          <t>-9,68; -1,38</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,51; -3,89</t>
+          <t>-63,77; -7,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,01; -36,91</t>
+          <t>-79,03; -34,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,91; -3,88</t>
+          <t>-54,97; -2,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 94,1</t>
+          <t>-14,17; 94,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-77,31; -22,21</t>
+          <t>-79,7; -25,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,59; 5,71</t>
+          <t>-53,54; 3,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 25,8</t>
+          <t>-28,22; 25,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,69; -42,81</t>
+          <t>-74,51; -40,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,44; -10,89</t>
+          <t>-47,32; -8,68</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 9,44</t>
+          <t>-0,71; 9,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -2,8</t>
+          <t>-11,79; -3,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,42</t>
+          <t>-7,68; 1,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,55</t>
+          <t>1,65; 10,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -2,36</t>
+          <t>-10,74; -2,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -1,94</t>
+          <t>-12,21; -1,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,43</t>
+          <t>1,92; 8,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -3,39</t>
+          <t>-9,53; -3,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -1,61</t>
+          <t>-9,33; -1,5</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 71,61</t>
+          <t>-0,88; 73,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-63,27; -19,43</t>
+          <t>-64,39; -20,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 10,09</t>
+          <t>-41,9; 10,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,17; 80,34</t>
+          <t>9,74; 83,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-61,95; -17,16</t>
+          <t>-60,84; -15,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-75,62; -14,55</t>
+          <t>-71,65; -12,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,87; 60,35</t>
+          <t>10,96; 62,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-57,04; -24,65</t>
+          <t>-57,13; -24,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,19; -11,06</t>
+          <t>-56,53; -11,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,32</t>
+          <t>1,12; 8,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,15</t>
+          <t>0,19; 7,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,09</t>
+          <t>-7,43; 0,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 6,74</t>
+          <t>-1,63; 6,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,57</t>
+          <t>-5,32; 2,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,56</t>
+          <t>-7,43; -0,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,19</t>
+          <t>0,85; 6,13</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,75</t>
+          <t>-1,72; 3,58</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -0,85</t>
+          <t>-7,35; -0,89</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4,48; 116,82</t>
+          <t>10,99; 127,2</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2,21; 109,0</t>
+          <t>2,04; 109,09</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 14,4</t>
+          <t>-68,68; 13,03</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 60,43</t>
+          <t>-10,81; 57,69</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 23,14</t>
+          <t>-33,01; 23,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-47,6; -4,61</t>
+          <t>-46,95; -5,12</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,08; 63,77</t>
+          <t>7,02; 65,45</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 38,49</t>
+          <t>-14,33; 37,67</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-58,39; -9,33</t>
+          <t>-62,02; -10,26</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,38</t>
+          <t>-0,6; 3,33</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,08</t>
+          <t>-4,86; -1,13</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -2,2</t>
+          <t>-6,43; -2,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,99</t>
+          <t>0,14; 3,98</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -2,52</t>
+          <t>-6,21; -2,58</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,18</t>
+          <t>-7,53; -3,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,19</t>
+          <t>0,42; 3,25</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,37</t>
+          <t>-5,02; -2,46</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -3,12</t>
+          <t>-6,34; -3,25</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 26,24</t>
+          <t>-4,19; 26,18</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -8,31</t>
+          <t>-33,01; -8,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -17,48</t>
+          <t>-45,19; -17,27</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,34</t>
+          <t>0,86; 26,31</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -17,17</t>
+          <t>-36,72; -16,71</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-44,21; -21,57</t>
+          <t>-45,19; -20,92</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,06; 22,1</t>
+          <t>2,8; 22,8</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -16,15</t>
+          <t>-32,03; -16,88</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -22,26</t>
+          <t>-40,98; -22,72</t>
         </is>
       </c>
     </row>
